--- a/Team-Data/2014-15/4-1-2014-15.xlsx
+++ b/Team-Data/2014-15/4-1-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -768,16 +835,16 @@
         <v>3</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="n">
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>24</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
         <v>41</v>
       </c>
       <c r="G3" t="n">
-        <v>0.453</v>
+        <v>0.446</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -878,7 +945,7 @@
         <v>24.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O3" t="n">
         <v>15.4</v>
@@ -887,22 +954,22 @@
         <v>20.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R3" t="n">
         <v>11.2</v>
       </c>
       <c r="S3" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U3" t="n">
         <v>24.3</v>
       </c>
       <c r="V3" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -914,7 +981,7 @@
         <v>5.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
         <v>18.7</v>
@@ -923,13 +990,13 @@
         <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
         <v>19</v>
@@ -953,10 +1020,10 @@
         <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -965,10 +1032,10 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
@@ -989,16 +1056,16 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -1030,43 +1097,43 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.459</v>
+        <v>0.452</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J4" t="n">
         <v>82.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.328</v>
+        <v>0.326</v>
       </c>
       <c r="O4" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P4" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q4" t="n">
         <v>0.749</v>
@@ -1078,10 +1145,10 @@
         <v>32.2</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
         <v>14</v>
@@ -1105,28 +1172,28 @@
         <v>97.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
@@ -1138,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1153,16 +1220,16 @@
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1177,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1279,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
         <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.432</v>
+        <v>0.425</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J5" t="n">
         <v>84.8</v>
@@ -1236,13 +1303,13 @@
         <v>0.424</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
         <v>18.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="O5" t="n">
         <v>17.3</v>
@@ -1257,16 +1324,16 @@
         <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="T5" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U5" t="n">
         <v>20.6</v>
       </c>
       <c r="V5" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W5" t="n">
         <v>5.9</v>
@@ -1278,28 +1345,28 @@
         <v>5.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.9</v>
+        <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1314,7 +1381,7 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
         <v>25</v>
@@ -1323,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1338,10 +1405,10 @@
         <v>3</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1365,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
         <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.608</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1412,7 +1479,7 @@
         <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.443</v>
@@ -1424,31 +1491,31 @@
         <v>22</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.787</v>
       </c>
       <c r="R6" t="n">
         <v>11.7</v>
       </c>
       <c r="S6" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T6" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U6" t="n">
         <v>21.8</v>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1457,7 +1524,7 @@
         <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z6" t="n">
         <v>18.4</v>
@@ -1466,22 +1533,22 @@
         <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1535,16 +1602,16 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>6</v>
@@ -1672,10 +1739,10 @@
         <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1696,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
         <v>19</v>
@@ -1717,16 +1784,16 @@
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -1761,25 +1828,25 @@
         <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.622</v>
+        <v>0.608</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.7</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
         <v>9.1</v>
@@ -1788,19 +1855,19 @@
         <v>25.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O8" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P8" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q8" t="n">
         <v>0.752</v>
       </c>
       <c r="R8" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S8" t="n">
         <v>31.6</v>
@@ -1809,7 +1876,7 @@
         <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
         <v>12.9</v>
@@ -1830,13 +1897,13 @@
         <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.6</v>
+        <v>104.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1851,7 +1918,7 @@
         <v>14</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1866,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
@@ -1881,10 +1948,10 @@
         <v>19</v>
       </c>
       <c r="AS8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT8" t="n">
         <v>23</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,13 +1963,13 @@
         <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" t="n">
         <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" t="n">
-        <v>0.373</v>
+        <v>0.378</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,43 +2025,43 @@
         <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>86.8</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L9" t="n">
         <v>7.9</v>
       </c>
       <c r="M9" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="O9" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P9" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="R9" t="n">
         <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T9" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U9" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V9" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W9" t="n">
         <v>7.7</v>
@@ -2012,13 +2079,13 @@
         <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.5</v>
+        <v>-3.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,13 +2097,13 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -2045,19 +2112,19 @@
         <v>14</v>
       </c>
       <c r="AM9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>3</v>
@@ -2066,7 +2133,7 @@
         <v>12</v>
       </c>
       <c r="AT9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>0.387</v>
+        <v>0.392</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J10" t="n">
         <v>86.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.428</v>
+        <v>0.429</v>
       </c>
       <c r="L10" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O10" t="n">
         <v>16</v>
       </c>
       <c r="P10" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.705</v>
+        <v>0.706</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T10" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U10" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V10" t="n">
         <v>13.3</v>
@@ -2185,7 +2252,7 @@
         <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
         <v>18.9</v>
@@ -2194,13 +2261,13 @@
         <v>19.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,16 +2279,16 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
         <v>10</v>
@@ -2230,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
         <v>25</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2272,7 +2339,7 @@
         <v>22</v>
       </c>
       <c r="BB10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2400,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2421,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2430,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2439,10 +2506,10 @@
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -2501,28 +2568,28 @@
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.441</v>
       </c>
       <c r="L12" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="M12" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
         <v>0.722</v>
@@ -2531,10 +2598,10 @@
         <v>11.8</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>22.3</v>
@@ -2543,28 +2610,28 @@
         <v>16.8</v>
       </c>
       <c r="W12" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2579,7 +2646,7 @@
         <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2597,19 +2664,19 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR12" t="n">
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
         <v>15</v>
@@ -2627,19 +2694,19 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" t="n">
         <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>0.427</v>
+        <v>0.432</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2689,7 +2756,7 @@
         <v>83.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L13" t="n">
         <v>7.3</v>
@@ -2704,10 +2771,10 @@
         <v>16.7</v>
       </c>
       <c r="P13" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R13" t="n">
         <v>10.2</v>
@@ -2719,7 +2786,7 @@
         <v>44.4</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
         <v>14</v>
@@ -2734,34 +2801,34 @@
         <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA13" t="n">
         <v>21.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
@@ -2770,7 +2837,7 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2779,13 +2846,13 @@
         <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP13" t="n">
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>23</v>
@@ -2794,7 +2861,7 @@
         <v>5</v>
       </c>
       <c r="AT13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU13" t="n">
         <v>18</v>
@@ -2806,13 +2873,13 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>20</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.658</v>
+        <v>0.653</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J14" t="n">
         <v>83.40000000000001</v>
@@ -2874,13 +2941,13 @@
         <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
         <v>26.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
         <v>17.8</v>
@@ -2889,7 +2956,7 @@
         <v>25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.711</v>
+        <v>0.71</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
@@ -2904,13 +2971,13 @@
         <v>24.7</v>
       </c>
       <c r="V14" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
         <v>3.1</v>
@@ -2919,34 +2986,34 @@
         <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.8</v>
+        <v>106.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2961,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -3047,43 +3114,43 @@
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
         <v>44.1</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3140,22 +3207,22 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
         <v>11</v>
@@ -3173,13 +3240,13 @@
         <v>18</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3325,13 +3392,13 @@
         <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>21</v>
@@ -3355,10 +3422,10 @@
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>20</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3525,10 +3592,10 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
@@ -3540,7 +3607,7 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
         <v>8</v>
@@ -3549,7 +3616,7 @@
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="n">
         <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.493</v>
+        <v>0.486</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
@@ -3596,10 +3663,10 @@
         <v>37.3</v>
       </c>
       <c r="J18" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L18" t="n">
         <v>6.7</v>
@@ -3611,16 +3678,16 @@
         <v>0.365</v>
       </c>
       <c r="O18" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P18" t="n">
         <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R18" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S18" t="n">
         <v>31.4</v>
@@ -3629,7 +3696,7 @@
         <v>42.1</v>
       </c>
       <c r="U18" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V18" t="n">
         <v>16.8</v>
@@ -3644,19 +3711,19 @@
         <v>4.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA18" t="n">
         <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3677,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3686,7 +3753,7 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3695,16 +3762,16 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3713,7 +3780,7 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
         <v>10</v>
@@ -3722,16 +3789,16 @@
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>23</v>
       </c>
       <c r="BC18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" t="n">
-        <v>0.213</v>
+        <v>0.216</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J19" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
@@ -3793,28 +3860,28 @@
         <v>0.335</v>
       </c>
       <c r="O19" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P19" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R19" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S19" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T19" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U19" t="n">
         <v>21.7</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
         <v>8.199999999999999</v>
@@ -3826,19 +3893,19 @@
         <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB19" t="n">
         <v>97.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,13 +3917,13 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3877,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>5</v>
@@ -3886,7 +3953,7 @@
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>15</v>
@@ -3898,16 +3965,16 @@
         <v>9</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -3960,67 +4027,67 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.40000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
         <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.37</v>
+        <v>0.366</v>
       </c>
       <c r="O20" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V20" t="n">
         <v>13.6</v>
       </c>
       <c r="W20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
         <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4038,10 +4105,10 @@
         <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4056,10 +4123,10 @@
         <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
@@ -4068,7 +4135,7 @@
         <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4089,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -4124,22 +4191,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" t="n">
-        <v>0.187</v>
+        <v>0.189</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J21" t="n">
         <v>82.40000000000001</v>
@@ -4154,7 +4221,7 @@
         <v>19.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O21" t="n">
         <v>14.5</v>
@@ -4163,7 +4230,7 @@
         <v>18.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
@@ -4178,7 +4245,7 @@
         <v>21.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
@@ -4190,19 +4257,19 @@
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>91.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.6</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4220,10 +4287,10 @@
         <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" t="n">
         <v>42</v>
       </c>
       <c r="F22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,37 +4391,37 @@
         <v>38.6</v>
       </c>
       <c r="J22" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="O22" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P22" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R22" t="n">
         <v>12.6</v>
       </c>
       <c r="S22" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="T22" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="U22" t="n">
         <v>20.7</v>
@@ -4363,7 +4430,7 @@
         <v>15</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X22" t="n">
         <v>5.7</v>
@@ -4378,13 +4445,13 @@
         <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.6</v>
+        <v>103.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4396,7 +4463,7 @@
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4414,13 +4481,13 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ22" t="n">
         <v>11</v>
@@ -4450,13 +4517,13 @@
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -4503,10 +4570,10 @@
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K23" t="n">
         <v>0.455</v>
@@ -4518,13 +4585,13 @@
         <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="Q23" t="n">
         <v>0.731</v>
@@ -4539,7 +4606,7 @@
         <v>41.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4551,22 +4618,22 @@
         <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4584,13 +4651,13 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4605,22 +4672,22 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>13</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" t="n">
-        <v>0.237</v>
+        <v>0.24</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,7 +4755,7 @@
         <v>33.7</v>
       </c>
       <c r="J24" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K24" t="n">
         <v>0.409</v>
@@ -4697,7 +4764,7 @@
         <v>8.4</v>
       </c>
       <c r="M24" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="N24" t="n">
         <v>0.323</v>
@@ -4706,7 +4773,7 @@
         <v>15.9</v>
       </c>
       <c r="P24" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q24" t="n">
         <v>0.669</v>
@@ -4715,16 +4782,16 @@
         <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T24" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U24" t="n">
         <v>20.6</v>
       </c>
       <c r="V24" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="W24" t="n">
         <v>9.800000000000001</v>
@@ -4733,7 +4800,7 @@
         <v>6</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
         <v>21.5</v>
@@ -4745,7 +4812,7 @@
         <v>91.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -4766,7 +4833,7 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4775,10 +4842,10 @@
         <v>11</v>
       </c>
       <c r="AM24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4811,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4942,7 +5009,7 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4951,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>9</v>
@@ -4960,7 +5027,7 @@
         <v>9</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
         <v>20</v>
@@ -4969,16 +5036,16 @@
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS25" t="n">
         <v>14</v>
       </c>
-      <c r="AR25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>13</v>
-      </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
@@ -4999,13 +5066,13 @@
         <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
         <v>48</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.649</v>
+        <v>0.658</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,7 +5119,7 @@
         <v>38.5</v>
       </c>
       <c r="J26" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K26" t="n">
         <v>0.449</v>
@@ -5064,34 +5131,34 @@
         <v>27.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O26" t="n">
         <v>15.8</v>
       </c>
       <c r="P26" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.797</v>
+        <v>0.798</v>
       </c>
       <c r="R26" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S26" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="T26" t="n">
         <v>45.9</v>
       </c>
       <c r="U26" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V26" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
         <v>4.6</v>
@@ -5106,13 +5173,13 @@
         <v>19.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.9</v>
+        <v>102.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
@@ -5121,7 +5188,7 @@
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
@@ -5136,13 +5203,13 @@
         <v>17</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5175,7 +5242,7 @@
         <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="n">
         <v>26</v>
       </c>
       <c r="F27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" t="n">
-        <v>0.351</v>
+        <v>0.356</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L27" t="n">
         <v>5.5</v>
@@ -5246,28 +5313,28 @@
         <v>16.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O27" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="P27" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R27" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T27" t="n">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="U27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
         <v>16.5</v>
@@ -5279,22 +5346,22 @@
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
         <v>20.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC27" t="n">
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5309,7 +5376,7 @@
         <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,19 +5400,19 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5354,7 +5421,7 @@
         <v>26</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
@@ -5366,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -5416,13 +5483,13 @@
         <v>38.7</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>22.6</v>
@@ -5431,28 +5498,28 @@
         <v>0.365</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U28" t="n">
         <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
         <v>8</v>
@@ -5461,10 +5528,10 @@
         <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA28" t="n">
         <v>19.9</v>
@@ -5473,19 +5540,19 @@
         <v>102.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
       </c>
       <c r="AF28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5494,10 +5561,10 @@
         <v>6</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
         <v>12</v>
@@ -5506,13 +5573,13 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>5</v>
@@ -5524,13 +5591,13 @@
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>11</v>
@@ -5542,7 +5609,7 @@
         <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="n">
         <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>0.595</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,10 +5665,10 @@
         <v>37.9</v>
       </c>
       <c r="J29" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L29" t="n">
         <v>8.800000000000001</v>
@@ -5610,28 +5677,28 @@
         <v>24.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
         <v>24.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R29" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S29" t="n">
         <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U29" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V29" t="n">
         <v>12.8</v>
@@ -5646,40 +5713,40 @@
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
         <v>20.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,19 +5755,19 @@
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5718,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5733,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" t="n">
         <v>41</v>
       </c>
       <c r="G30" t="n">
-        <v>0.453</v>
+        <v>0.446</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5789,10 +5856,10 @@
         <v>7.3</v>
       </c>
       <c r="M30" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O30" t="n">
         <v>16.9</v>
@@ -5801,7 +5868,7 @@
         <v>23.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R30" t="n">
         <v>12</v>
@@ -5810,10 +5877,10 @@
         <v>31.8</v>
       </c>
       <c r="T30" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U30" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V30" t="n">
         <v>15.2</v>
@@ -5822,28 +5889,28 @@
         <v>7.5</v>
       </c>
       <c r="X30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB30" t="n">
         <v>94.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>19</v>
@@ -5864,7 +5931,7 @@
         <v>19</v>
       </c>
       <c r="AL30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
@@ -5873,19 +5940,19 @@
         <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR30" t="n">
         <v>4</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5894,13 +5961,13 @@
         <v>30</v>
       </c>
       <c r="AV30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW30" t="n">
         <v>18</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
@@ -5909,13 +5976,13 @@
         <v>11</v>
       </c>
       <c r="BA30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" t="n">
         <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5962,43 +6029,43 @@
         <v>38.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N31" t="n">
         <v>0.357</v>
       </c>
       <c r="O31" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P31" t="n">
         <v>21.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R31" t="n">
         <v>10.4</v>
       </c>
       <c r="S31" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T31" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U31" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V31" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W31" t="n">
         <v>7.4</v>
@@ -6007,7 +6074,7 @@
         <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
         <v>21</v>
@@ -6016,22 +6083,22 @@
         <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>7</v>
@@ -6040,13 +6107,13 @@
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM31" t="n">
         <v>27</v>
@@ -6076,7 +6143,7 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
         <v>20</v>
@@ -6088,13 +6155,13 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-1-2014-15</t>
+          <t>2015-04-01</t>
         </is>
       </c>
     </row>
